--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -134,6 +134,14 @@
     <t>宋海峰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>是否影响数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -190,12 +198,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -336,6 +346,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -354,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +469,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -803,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S218"/>
+  <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,13 +854,13 @@
     <col min="14" max="14" width="11.625" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="48.5" style="20" customWidth="1"/>
-    <col min="19" max="19" width="8.875" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="48.5" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,10 +913,13 @@
         <v>18</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -926,10 +957,13 @@
         <v>1199</v>
       </c>
       <c r="Q2" s="22"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -949,10 +983,11 @@
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R3" s="33"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -972,10 +1007,11 @@
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R4" s="33"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -995,10 +1031,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R5" s="33"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1018,10 +1055,11 @@
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R6" s="34"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1041,10 +1079,11 @@
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R7" s="34"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="30"/>
       <c r="C8" s="12"/>
@@ -1062,10 +1101,11 @@
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R8" s="34"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -1083,10 +1123,11 @@
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R9" s="34"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="30"/>
       <c r="C10" s="12"/>
@@ -1104,10 +1145,11 @@
       <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R10" s="34"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="30"/>
       <c r="C11" s="12"/>
@@ -1125,10 +1167,11 @@
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R11" s="34"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="30"/>
       <c r="C12" s="12"/>
@@ -1146,10 +1189,11 @@
       <c r="O12" s="14"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R12" s="34"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
@@ -1167,10 +1211,11 @@
       <c r="O13" s="14"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R13" s="34"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12"/>
@@ -1188,10 +1233,11 @@
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="34"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
@@ -1209,10 +1255,11 @@
       <c r="O15" s="14"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R15" s="34"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -1230,10 +1277,11 @@
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R16" s="34"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
@@ -1251,10 +1299,11 @@
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R17" s="34"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
@@ -1272,10 +1321,11 @@
       <c r="O18" s="14"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="R18" s="34"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="31"/>
       <c r="C19" s="12"/>
@@ -1293,10 +1343,11 @@
       <c r="O19" s="14"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R19" s="34"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1314,10 +1365,11 @@
       <c r="O20" s="14"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R20" s="34"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1335,10 +1387,11 @@
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R21" s="34"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1356,10 +1409,11 @@
       <c r="O22" s="14"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R22" s="34"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1377,10 +1431,11 @@
       <c r="O23" s="14"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="34"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -1398,10 +1453,11 @@
       <c r="O24" s="14"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R24" s="34"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -1419,10 +1475,11 @@
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R25" s="34"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -1440,10 +1497,11 @@
       <c r="O26" s="14"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R26" s="34"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -1461,10 +1519,11 @@
       <c r="O27" s="14"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R27" s="34"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -1482,10 +1541,11 @@
       <c r="O28" s="14"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R28" s="34"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -1503,10 +1563,11 @@
       <c r="O29" s="14"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R29" s="34"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -1524,10 +1585,11 @@
       <c r="O30" s="14"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R30" s="34"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -1545,10 +1607,11 @@
       <c r="O31" s="14"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R31" s="34"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -1566,10 +1629,11 @@
       <c r="O32" s="14"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R32" s="34"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -1587,10 +1651,11 @@
       <c r="O33" s="14"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R33" s="34"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -1608,10 +1673,11 @@
       <c r="O34" s="14"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R34" s="34"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -1629,10 +1695,11 @@
       <c r="O35" s="14"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R35" s="34"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -1650,10 +1717,11 @@
       <c r="O36" s="14"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R36" s="34"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -1671,10 +1739,11 @@
       <c r="O37" s="14"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R37" s="34"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -1692,10 +1761,11 @@
       <c r="O38" s="14"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R38" s="34"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -1713,10 +1783,11 @@
       <c r="O39" s="14"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R39" s="34"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -1734,10 +1805,11 @@
       <c r="O40" s="14"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R40" s="34"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -1755,10 +1827,11 @@
       <c r="O41" s="14"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R41" s="34"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -1776,10 +1849,11 @@
       <c r="O42" s="14"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R42" s="34"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -1797,10 +1871,11 @@
       <c r="O43" s="14"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="10"/>
-    </row>
-    <row r="44" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R43" s="34"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -1818,10 +1893,11 @@
       <c r="O44" s="14"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R44" s="34"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -1839,10 +1915,11 @@
       <c r="O45" s="14"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R45" s="7"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -1860,10 +1937,11 @@
       <c r="O46" s="14"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R46" s="7"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -1881,10 +1959,11 @@
       <c r="O47" s="14"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R47" s="7"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -1902,10 +1981,11 @@
       <c r="O48" s="14"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R48" s="7"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -1923,10 +2003,11 @@
       <c r="O49" s="14"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="10"/>
-    </row>
-    <row r="50" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R49" s="7"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -1944,10 +2025,11 @@
       <c r="O50" s="14"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R50" s="7"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -1965,10 +2047,11 @@
       <c r="O51" s="14"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R51" s="7"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -1986,10 +2069,11 @@
       <c r="O52" s="14"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="10"/>
-    </row>
-    <row r="53" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R52" s="7"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="8"/>
       <c r="C53" s="12"/>
@@ -2007,10 +2091,11 @@
       <c r="O53" s="14"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="10"/>
-    </row>
-    <row r="54" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R53" s="7"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="8"/>
       <c r="C54" s="12"/>
@@ -2028,10 +2113,11 @@
       <c r="O54" s="14"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="10"/>
-    </row>
-    <row r="55" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R54" s="7"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="8"/>
       <c r="C55" s="12"/>
@@ -2049,10 +2135,11 @@
       <c r="O55" s="14"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R55" s="7"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12"/>
@@ -2070,10 +2157,11 @@
       <c r="O56" s="14"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="10"/>
-    </row>
-    <row r="57" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R56" s="7"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="10"/>
+    </row>
+    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="8"/>
       <c r="C57" s="12"/>
@@ -2091,10 +2179,11 @@
       <c r="O57" s="14"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="10"/>
-    </row>
-    <row r="58" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R57" s="7"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="8"/>
       <c r="C58" s="12"/>
@@ -2112,10 +2201,11 @@
       <c r="O58" s="14"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="10"/>
-    </row>
-    <row r="59" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R58" s="7"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="8"/>
       <c r="C59" s="12"/>
@@ -2133,10 +2223,11 @@
       <c r="O59" s="14"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="10"/>
-    </row>
-    <row r="60" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R59" s="7"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="8"/>
       <c r="C60" s="12"/>
@@ -2154,10 +2245,11 @@
       <c r="O60" s="14"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="10"/>
-    </row>
-    <row r="61" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R60" s="7"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="17"/>
       <c r="C61" s="9"/>
@@ -2175,10 +2267,11 @@
       <c r="O61" s="17"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="10"/>
-    </row>
-    <row r="62" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R61" s="7"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="10"/>
+    </row>
+    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="17"/>
       <c r="C62" s="9"/>
@@ -2196,10 +2289,11 @@
       <c r="O62" s="17"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="10"/>
-    </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R62" s="7"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2217,9 +2311,10 @@
       <c r="O63" s="4"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R63" s="7"/>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2237,9 +2332,10 @@
       <c r="O64" s="4"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R64" s="7"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2257,9 +2353,10 @@
       <c r="O65" s="4"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R65" s="7"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2277,9 +2374,10 @@
       <c r="O66" s="4"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R66" s="7"/>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2297,9 +2395,10 @@
       <c r="O67" s="4"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R67" s="7"/>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2317,9 +2416,10 @@
       <c r="O68" s="4"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R68" s="7"/>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2337,9 +2437,10 @@
       <c r="O69" s="4"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R69" s="7"/>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2357,9 +2458,10 @@
       <c r="O70" s="4"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R70" s="7"/>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2377,9 +2479,10 @@
       <c r="O71" s="4"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R71" s="7"/>
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2397,9 +2500,10 @@
       <c r="O72" s="4"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R72" s="7"/>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2417,9 +2521,10 @@
       <c r="O73" s="4"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R73" s="7"/>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2437,9 +2542,10 @@
       <c r="O74" s="4"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R74" s="7"/>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2457,9 +2563,10 @@
       <c r="O75" s="4"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R75" s="7"/>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -2477,9 +2584,10 @@
       <c r="O76" s="4"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R76" s="7"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -2497,9 +2605,10 @@
       <c r="O77" s="4"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R77" s="7"/>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -2517,9 +2626,10 @@
       <c r="O78" s="4"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R78" s="7"/>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -2537,9 +2647,10 @@
       <c r="O79" s="4"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
-      <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R79" s="7"/>
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -2557,9 +2668,10 @@
       <c r="O80" s="4"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R80" s="7"/>
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -2577,9 +2689,10 @@
       <c r="O81" s="4"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R81" s="7"/>
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -2597,9 +2710,10 @@
       <c r="O82" s="4"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R82" s="7"/>
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -2617,9 +2731,10 @@
       <c r="O83" s="4"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R83" s="7"/>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -2637,9 +2752,10 @@
       <c r="O84" s="4"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R84" s="7"/>
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -2657,9 +2773,10 @@
       <c r="O85" s="4"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R85" s="7"/>
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -2677,9 +2794,10 @@
       <c r="O86" s="4"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R86" s="7"/>
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -2697,9 +2815,10 @@
       <c r="O87" s="4"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R87" s="7"/>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -2717,9 +2836,10 @@
       <c r="O88" s="4"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R88" s="7"/>
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -2737,9 +2857,10 @@
       <c r="O89" s="4"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R89" s="7"/>
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -2757,9 +2878,10 @@
       <c r="O90" s="4"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R90" s="7"/>
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -2777,9 +2899,10 @@
       <c r="O91" s="4"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R91" s="7"/>
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -2797,9 +2920,10 @@
       <c r="O92" s="4"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R92" s="7"/>
+      <c r="S92" s="4"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -2817,9 +2941,10 @@
       <c r="O93" s="4"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R93" s="7"/>
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -2837,9 +2962,10 @@
       <c r="O94" s="4"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
-      <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R94" s="7"/>
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -2857,9 +2983,10 @@
       <c r="O95" s="4"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
-      <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R95" s="7"/>
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -2877,9 +3004,10 @@
       <c r="O96" s="4"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
-      <c r="R96" s="4"/>
-    </row>
-    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R96" s="7"/>
+      <c r="S96" s="4"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -2897,9 +3025,10 @@
       <c r="O97" s="4"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
-      <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R97" s="7"/>
+      <c r="S97" s="4"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -2917,9 +3046,10 @@
       <c r="O98" s="4"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
-      <c r="R98" s="4"/>
-    </row>
-    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R98" s="7"/>
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -2937,9 +3067,10 @@
       <c r="O99" s="4"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
-      <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R99" s="7"/>
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -2957,9 +3088,10 @@
       <c r="O100" s="4"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
-      <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R100" s="7"/>
+      <c r="S100" s="4"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -2977,9 +3109,10 @@
       <c r="O101" s="4"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
-      <c r="R101" s="4"/>
-    </row>
-    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R101" s="7"/>
+      <c r="S101" s="4"/>
+    </row>
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -2997,9 +3130,10 @@
       <c r="O102" s="4"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
-      <c r="R102" s="4"/>
-    </row>
-    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R102" s="7"/>
+      <c r="S102" s="4"/>
+    </row>
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3017,9 +3151,10 @@
       <c r="O103" s="4"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
-      <c r="R103" s="4"/>
-    </row>
-    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R103" s="7"/>
+      <c r="S103" s="4"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3037,9 +3172,10 @@
       <c r="O104" s="4"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
-      <c r="R104" s="4"/>
-    </row>
-    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R104" s="7"/>
+      <c r="S104" s="4"/>
+    </row>
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3057,9 +3193,10 @@
       <c r="O105" s="4"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
-      <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R105" s="7"/>
+      <c r="S105" s="4"/>
+    </row>
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3077,9 +3214,10 @@
       <c r="O106" s="4"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
-      <c r="R106" s="4"/>
-    </row>
-    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R106" s="7"/>
+      <c r="S106" s="4"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3097,9 +3235,10 @@
       <c r="O107" s="4"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
-      <c r="R107" s="4"/>
-    </row>
-    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R107" s="7"/>
+      <c r="S107" s="4"/>
+    </row>
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3117,9 +3256,10 @@
       <c r="O108" s="4"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
-      <c r="R108" s="4"/>
-    </row>
-    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R108" s="7"/>
+      <c r="S108" s="4"/>
+    </row>
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3137,9 +3277,10 @@
       <c r="O109" s="4"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
-      <c r="R109" s="4"/>
-    </row>
-    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R109" s="7"/>
+      <c r="S109" s="4"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3157,9 +3298,10 @@
       <c r="O110" s="4"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
-      <c r="R110" s="4"/>
-    </row>
-    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R110" s="7"/>
+      <c r="S110" s="4"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3177,9 +3319,10 @@
       <c r="O111" s="4"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
-      <c r="R111" s="4"/>
-    </row>
-    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R111" s="7"/>
+      <c r="S111" s="4"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3197,9 +3340,10 @@
       <c r="O112" s="4"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
-      <c r="R112" s="4"/>
-    </row>
-    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R112" s="7"/>
+      <c r="S112" s="4"/>
+    </row>
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3217,9 +3361,10 @@
       <c r="O113" s="4"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
-      <c r="R113" s="4"/>
-    </row>
-    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R113" s="7"/>
+      <c r="S113" s="4"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3237,9 +3382,10 @@
       <c r="O114" s="4"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
-      <c r="R114" s="4"/>
-    </row>
-    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R114" s="7"/>
+      <c r="S114" s="4"/>
+    </row>
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3257,9 +3403,10 @@
       <c r="O115" s="4"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
-      <c r="R115" s="4"/>
-    </row>
-    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R115" s="7"/>
+      <c r="S115" s="4"/>
+    </row>
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3277,9 +3424,10 @@
       <c r="O116" s="4"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
-      <c r="R116" s="4"/>
-    </row>
-    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R116" s="7"/>
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3297,9 +3445,10 @@
       <c r="O117" s="4"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
-      <c r="R117" s="4"/>
-    </row>
-    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R117" s="7"/>
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3317,9 +3466,10 @@
       <c r="O118" s="4"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
-      <c r="R118" s="4"/>
-    </row>
-    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R118" s="7"/>
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3337,9 +3487,10 @@
       <c r="O119" s="4"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
-      <c r="R119" s="4"/>
-    </row>
-    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R119" s="7"/>
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3357,9 +3508,10 @@
       <c r="O120" s="4"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
-      <c r="R120" s="4"/>
-    </row>
-    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R120" s="7"/>
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3377,9 +3529,10 @@
       <c r="O121" s="4"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
-      <c r="R121" s="4"/>
-    </row>
-    <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R121" s="7"/>
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3397,9 +3550,10 @@
       <c r="O122" s="4"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
-      <c r="R122" s="4"/>
-    </row>
-    <row r="123" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R122" s="7"/>
+      <c r="S122" s="4"/>
+    </row>
+    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3417,9 +3571,10 @@
       <c r="O123" s="4"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
-      <c r="R123" s="4"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R123" s="7"/>
+      <c r="S123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3437,9 +3592,10 @@
       <c r="O124" s="4"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
-      <c r="R124" s="4"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R124" s="7"/>
+      <c r="S124" s="4"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3457,9 +3613,10 @@
       <c r="O125" s="4"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
-      <c r="R125" s="4"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R125" s="7"/>
+      <c r="S125" s="4"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3477,9 +3634,10 @@
       <c r="O126" s="4"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
-      <c r="R126" s="4"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R126" s="7"/>
+      <c r="S126" s="4"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3497,9 +3655,10 @@
       <c r="O127" s="4"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
-      <c r="R127" s="4"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R127" s="7"/>
+      <c r="S127" s="4"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3517,9 +3676,10 @@
       <c r="O128" s="4"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
-      <c r="R128" s="4"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R128" s="7"/>
+      <c r="S128" s="4"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -3537,9 +3697,10 @@
       <c r="O129" s="4"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
-      <c r="R129" s="4"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R129" s="7"/>
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -3557,9 +3718,10 @@
       <c r="O130" s="4"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
-      <c r="R130" s="4"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R130" s="7"/>
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -3577,9 +3739,10 @@
       <c r="O131" s="4"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
-      <c r="R131" s="4"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R131" s="7"/>
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -3597,9 +3760,10 @@
       <c r="O132" s="4"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
-      <c r="R132" s="4"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R132" s="7"/>
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -3617,9 +3781,10 @@
       <c r="O133" s="4"/>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
-      <c r="R133" s="4"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R133" s="7"/>
+      <c r="S133" s="4"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -3637,9 +3802,10 @@
       <c r="O134" s="4"/>
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
-      <c r="R134" s="4"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R134" s="7"/>
+      <c r="S134" s="4"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -3657,9 +3823,10 @@
       <c r="O135" s="4"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
-      <c r="R135" s="4"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R135" s="7"/>
+      <c r="S135" s="4"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -3677,9 +3844,10 @@
       <c r="O136" s="4"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
-      <c r="R136" s="4"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R136" s="7"/>
+      <c r="S136" s="4"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -3697,9 +3865,10 @@
       <c r="O137" s="4"/>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
-      <c r="R137" s="4"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R137" s="7"/>
+      <c r="S137" s="4"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -3717,9 +3886,10 @@
       <c r="O138" s="4"/>
       <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
-      <c r="R138" s="4"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R138" s="7"/>
+      <c r="S138" s="4"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -3737,9 +3907,10 @@
       <c r="O139" s="4"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
-      <c r="R139" s="4"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R139" s="7"/>
+      <c r="S139" s="4"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -3757,9 +3928,10 @@
       <c r="O140" s="4"/>
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
-      <c r="R140" s="4"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R140" s="7"/>
+      <c r="S140" s="4"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -3777,9 +3949,10 @@
       <c r="O141" s="4"/>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
-      <c r="R141" s="4"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R141" s="7"/>
+      <c r="S141" s="4"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -3797,9 +3970,10 @@
       <c r="O142" s="4"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
-      <c r="R142" s="4"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R142" s="7"/>
+      <c r="S142" s="4"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -3817,9 +3991,10 @@
       <c r="O143" s="4"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
-      <c r="R143" s="4"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R143" s="7"/>
+      <c r="S143" s="4"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -3837,9 +4012,10 @@
       <c r="O144" s="4"/>
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
-      <c r="R144" s="4"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R144" s="7"/>
+      <c r="S144" s="4"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -3857,9 +4033,10 @@
       <c r="O145" s="4"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
-      <c r="R145" s="4"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R145" s="7"/>
+      <c r="S145" s="4"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -3877,9 +4054,10 @@
       <c r="O146" s="4"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
-      <c r="R146" s="4"/>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R146" s="7"/>
+      <c r="S146" s="4"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -3897,9 +4075,10 @@
       <c r="O147" s="4"/>
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
-      <c r="R147" s="4"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R147" s="7"/>
+      <c r="S147" s="4"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -3917,9 +4096,10 @@
       <c r="O148" s="4"/>
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
-      <c r="R148" s="4"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R148" s="7"/>
+      <c r="S148" s="4"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -3937,9 +4117,10 @@
       <c r="O149" s="4"/>
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
-      <c r="R149" s="4"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R149" s="7"/>
+      <c r="S149" s="4"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -3957,9 +4138,10 @@
       <c r="O150" s="4"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
-      <c r="R150" s="4"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R150" s="7"/>
+      <c r="S150" s="4"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -3977,9 +4159,10 @@
       <c r="O151" s="4"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
-      <c r="R151" s="4"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R151" s="7"/>
+      <c r="S151" s="4"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -3997,9 +4180,10 @@
       <c r="O152" s="4"/>
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
-      <c r="R152" s="4"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R152" s="7"/>
+      <c r="S152" s="4"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -4017,9 +4201,10 @@
       <c r="O153" s="4"/>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
-      <c r="R153" s="4"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R153" s="7"/>
+      <c r="S153" s="4"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -4037,9 +4222,10 @@
       <c r="O154" s="4"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
-      <c r="R154" s="4"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R154" s="7"/>
+      <c r="S154" s="4"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -4057,9 +4243,10 @@
       <c r="O155" s="4"/>
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
-      <c r="R155" s="4"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R155" s="7"/>
+      <c r="S155" s="4"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -4077,9 +4264,10 @@
       <c r="O156" s="4"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
-      <c r="R156" s="4"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R156" s="7"/>
+      <c r="S156" s="4"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -4097,9 +4285,10 @@
       <c r="O157" s="4"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
-      <c r="R157" s="4"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R157" s="7"/>
+      <c r="S157" s="4"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -4117,9 +4306,10 @@
       <c r="O158" s="4"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
-      <c r="R158" s="4"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R158" s="7"/>
+      <c r="S158" s="4"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -4137,9 +4327,10 @@
       <c r="O159" s="4"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
-      <c r="R159" s="4"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R159" s="7"/>
+      <c r="S159" s="4"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -4157,9 +4348,10 @@
       <c r="O160" s="4"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
-      <c r="R160" s="4"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R160" s="7"/>
+      <c r="S160" s="4"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -4177,9 +4369,10 @@
       <c r="O161" s="4"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
-      <c r="R161" s="4"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R161" s="7"/>
+      <c r="S161" s="4"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -4197,9 +4390,10 @@
       <c r="O162" s="4"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
-      <c r="R162" s="4"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R162" s="7"/>
+      <c r="S162" s="4"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -4217,9 +4411,10 @@
       <c r="O163" s="4"/>
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
-      <c r="R163" s="4"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R163" s="7"/>
+      <c r="S163" s="4"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -4237,9 +4432,10 @@
       <c r="O164" s="4"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
-      <c r="R164" s="4"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R164" s="7"/>
+      <c r="S164" s="4"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -4257,9 +4453,10 @@
       <c r="O165" s="4"/>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
-      <c r="R165" s="4"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R165" s="7"/>
+      <c r="S165" s="4"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -4277,9 +4474,10 @@
       <c r="O166" s="4"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
-      <c r="R166" s="4"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R166" s="7"/>
+      <c r="S166" s="4"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -4297,9 +4495,10 @@
       <c r="O167" s="4"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
-      <c r="R167" s="4"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R167" s="7"/>
+      <c r="S167" s="4"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -4317,9 +4516,10 @@
       <c r="O168" s="4"/>
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
-      <c r="R168" s="4"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R168" s="7"/>
+      <c r="S168" s="4"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -4337,9 +4537,10 @@
       <c r="O169" s="4"/>
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
-      <c r="R169" s="4"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R169" s="7"/>
+      <c r="S169" s="4"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -4357,9 +4558,10 @@
       <c r="O170" s="4"/>
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
-      <c r="R170" s="4"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R170" s="7"/>
+      <c r="S170" s="4"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -4377,9 +4579,10 @@
       <c r="O171" s="4"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
-      <c r="R171" s="4"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R171" s="7"/>
+      <c r="S171" s="4"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -4397,9 +4600,9 @@
       <c r="O172" s="4"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
-      <c r="R172" s="4"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S172" s="4"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -4417,9 +4620,9 @@
       <c r="O173" s="4"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
-      <c r="R173" s="4"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S173" s="4"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -4437,9 +4640,9 @@
       <c r="O174" s="4"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
-      <c r="R174" s="4"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S174" s="4"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -4457,9 +4660,9 @@
       <c r="O175" s="4"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
-      <c r="R175" s="4"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S175" s="4"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -4477,9 +4680,9 @@
       <c r="O176" s="4"/>
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
-      <c r="R176" s="4"/>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S176" s="4"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -4497,9 +4700,9 @@
       <c r="O177" s="4"/>
       <c r="P177" s="7"/>
       <c r="Q177" s="7"/>
-      <c r="R177" s="4"/>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S177" s="4"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -4517,9 +4720,9 @@
       <c r="O178" s="4"/>
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
-      <c r="R178" s="4"/>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S178" s="4"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -4537,9 +4740,9 @@
       <c r="O179" s="4"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
-      <c r="R179" s="4"/>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S179" s="4"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -4557,9 +4760,9 @@
       <c r="O180" s="4"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
-      <c r="R180" s="4"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S180" s="4"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -4577,9 +4780,9 @@
       <c r="O181" s="4"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
-      <c r="R181" s="4"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S181" s="4"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -4597,9 +4800,9 @@
       <c r="O182" s="4"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
-      <c r="R182" s="4"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S182" s="4"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -4617,9 +4820,9 @@
       <c r="O183" s="4"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
-      <c r="R183" s="4"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S183" s="4"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -4635,9 +4838,9 @@
       <c r="M184" s="7"/>
       <c r="N184" s="5"/>
       <c r="O184" s="4"/>
-      <c r="R184" s="4"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S184" s="4"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -4653,9 +4856,9 @@
       <c r="M185" s="7"/>
       <c r="N185" s="5"/>
       <c r="O185" s="4"/>
-      <c r="R185" s="4"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S185" s="4"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -4671,9 +4874,9 @@
       <c r="M186" s="7"/>
       <c r="N186" s="5"/>
       <c r="O186" s="4"/>
-      <c r="R186" s="4"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S186" s="4"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -4689,9 +4892,9 @@
       <c r="M187" s="7"/>
       <c r="N187" s="5"/>
       <c r="O187" s="4"/>
-      <c r="R187" s="4"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S187" s="4"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -4707,9 +4910,9 @@
       <c r="M188" s="7"/>
       <c r="N188" s="5"/>
       <c r="O188" s="4"/>
-      <c r="R188" s="4"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S188" s="4"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -4725,9 +4928,9 @@
       <c r="M189" s="7"/>
       <c r="N189" s="5"/>
       <c r="O189" s="4"/>
-      <c r="R189" s="4"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S189" s="4"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -4743,9 +4946,9 @@
       <c r="M190" s="7"/>
       <c r="N190" s="5"/>
       <c r="O190" s="4"/>
-      <c r="R190" s="4"/>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S190" s="4"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -4761,9 +4964,9 @@
       <c r="M191" s="7"/>
       <c r="N191" s="5"/>
       <c r="O191" s="4"/>
-      <c r="R191" s="4"/>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S191" s="4"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -4779,9 +4982,9 @@
       <c r="M192" s="7"/>
       <c r="N192" s="5"/>
       <c r="O192" s="4"/>
-      <c r="R192" s="4"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S192" s="4"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -4797,9 +5000,9 @@
       <c r="M193" s="7"/>
       <c r="N193" s="5"/>
       <c r="O193" s="4"/>
-      <c r="R193" s="4"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S193" s="4"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -4815,9 +5018,9 @@
       <c r="M194" s="7"/>
       <c r="N194" s="5"/>
       <c r="O194" s="4"/>
-      <c r="R194" s="4"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S194" s="4"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -4833,9 +5036,9 @@
       <c r="M195" s="7"/>
       <c r="N195" s="5"/>
       <c r="O195" s="4"/>
-      <c r="R195" s="4"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S195" s="4"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -4851,9 +5054,9 @@
       <c r="M196" s="7"/>
       <c r="N196" s="5"/>
       <c r="O196" s="4"/>
-      <c r="R196" s="4"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S196" s="4"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -4869,9 +5072,9 @@
       <c r="M197" s="7"/>
       <c r="N197" s="5"/>
       <c r="O197" s="4"/>
-      <c r="R197" s="4"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S197" s="4"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -4887,9 +5090,9 @@
       <c r="M198" s="7"/>
       <c r="N198" s="5"/>
       <c r="O198" s="4"/>
-      <c r="R198" s="4"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S198" s="4"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -4905,9 +5108,9 @@
       <c r="M199" s="7"/>
       <c r="N199" s="5"/>
       <c r="O199" s="4"/>
-      <c r="R199" s="4"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S199" s="4"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -4923,9 +5126,9 @@
       <c r="M200" s="7"/>
       <c r="N200" s="5"/>
       <c r="O200" s="4"/>
-      <c r="R200" s="4"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S200" s="4"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -4941,9 +5144,9 @@
       <c r="M201" s="7"/>
       <c r="N201" s="5"/>
       <c r="O201" s="4"/>
-      <c r="R201" s="4"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S201" s="4"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -4959,9 +5162,9 @@
       <c r="M202" s="7"/>
       <c r="N202" s="5"/>
       <c r="O202" s="4"/>
-      <c r="R202" s="4"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S202" s="4"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -4977,9 +5180,9 @@
       <c r="M203" s="7"/>
       <c r="N203" s="5"/>
       <c r="O203" s="4"/>
-      <c r="R203" s="4"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S203" s="4"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -4995,9 +5198,9 @@
       <c r="M204" s="7"/>
       <c r="N204" s="5"/>
       <c r="O204" s="4"/>
-      <c r="R204" s="4"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S204" s="4"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -5013,9 +5216,9 @@
       <c r="M205" s="7"/>
       <c r="N205" s="5"/>
       <c r="O205" s="4"/>
-      <c r="R205" s="4"/>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S205" s="4"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -5031,9 +5234,9 @@
       <c r="M206" s="7"/>
       <c r="N206" s="5"/>
       <c r="O206" s="4"/>
-      <c r="R206" s="4"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S206" s="4"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -5049,9 +5252,9 @@
       <c r="M207" s="7"/>
       <c r="N207" s="5"/>
       <c r="O207" s="4"/>
-      <c r="R207" s="4"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S207" s="4"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
       <c r="C208" s="7"/>
@@ -5067,9 +5270,9 @@
       <c r="M208" s="7"/>
       <c r="N208" s="5"/>
       <c r="O208" s="4"/>
-      <c r="R208" s="4"/>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S208" s="4"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="4"/>
       <c r="C209" s="7"/>
@@ -5085,9 +5288,9 @@
       <c r="M209" s="7"/>
       <c r="N209" s="5"/>
       <c r="O209" s="4"/>
-      <c r="R209" s="4"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S209" s="4"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
       <c r="B210" s="4"/>
       <c r="C210" s="7"/>
@@ -5103,9 +5306,9 @@
       <c r="M210" s="7"/>
       <c r="N210" s="5"/>
       <c r="O210" s="4"/>
-      <c r="R210" s="4"/>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S210" s="4"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
       <c r="B211" s="4"/>
       <c r="C211" s="7"/>
@@ -5121,9 +5324,9 @@
       <c r="M211" s="7"/>
       <c r="N211" s="5"/>
       <c r="O211" s="4"/>
-      <c r="R211" s="4"/>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S211" s="4"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
       <c r="B212" s="4"/>
       <c r="C212" s="7"/>
@@ -5139,9 +5342,9 @@
       <c r="M212" s="7"/>
       <c r="N212" s="5"/>
       <c r="O212" s="4"/>
-      <c r="R212" s="4"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S212" s="4"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
       <c r="B213" s="4"/>
       <c r="C213" s="7"/>
@@ -5157,9 +5360,9 @@
       <c r="M213" s="7"/>
       <c r="N213" s="5"/>
       <c r="O213" s="4"/>
-      <c r="R213" s="4"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S213" s="4"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
       <c r="B214" s="4"/>
       <c r="C214" s="7"/>
@@ -5175,9 +5378,9 @@
       <c r="M214" s="7"/>
       <c r="N214" s="5"/>
       <c r="O214" s="4"/>
-      <c r="R214" s="4"/>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S214" s="4"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
       <c r="B215" s="4"/>
       <c r="C215" s="7"/>
@@ -5193,9 +5396,9 @@
       <c r="M215" s="7"/>
       <c r="N215" s="5"/>
       <c r="O215" s="4"/>
-      <c r="R215" s="4"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S215" s="4"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
       <c r="B216" s="4"/>
       <c r="C216" s="7"/>
@@ -5211,9 +5414,9 @@
       <c r="M216" s="7"/>
       <c r="N216" s="5"/>
       <c r="O216" s="4"/>
-      <c r="R216" s="4"/>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S216" s="4"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
       <c r="B217" s="4"/>
       <c r="C217" s="7"/>
@@ -5229,9 +5432,9 @@
       <c r="M217" s="7"/>
       <c r="N217" s="5"/>
       <c r="O217" s="4"/>
-      <c r="R217" s="4"/>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S217" s="4"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A218" s="7"/>
       <c r="B218" s="4"/>
       <c r="C218" s="7"/>
@@ -5247,7 +5450,7 @@
       <c r="M218" s="7"/>
       <c r="N218" s="5"/>
       <c r="O218" s="4"/>
-      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本2.1.1.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.0.1新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -119,28 +119,158 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>房东App添加新房源点击公寓面积，九宫格输入法覆盖了面积输入栏，具体看截图（华为手机）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋海峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否影响数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单有零散租期时，零散租金可以为零</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起的签约单，租客证件照必须上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP签约单保存时若备注文字超长，保存时提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP/PC发起签约时，非蘑菇宝的租期选择任意时段，合同预览时租期仍显示为12个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP签约单上合同预览时，后退需要点2次才能退到签约单详情页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP签约单列表，查询时无法查询到审核不通过的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP/PC，合同预览时，3.0版本上线前的租客证件照没有显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP/PC，预约单/预订单发起签约时，若没有租客性别，在签约时无法修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC签约单列表中没有已退房的单子导致无法查看合同；BS签约单详情页，已退房的单子没有合同下载功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现失败回滚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东撤销签约单关闭未支付的账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房后，其押金不在押金列表中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东App添加新房源点击公寓面积，九宫格输入法覆盖了面积输入栏，具体看截图（华为手机）</t>
+    <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东APP</t>
+    <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>宋海峰</t>
+    <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否影响数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -924,29 +1054,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="13">
-        <v>42431</v>
+        <v>42433</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H2" s="13">
-        <v>42431</v>
+        <v>42433</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -958,7 +1088,7 @@
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="32" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -967,15 +1097,31 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42433</v>
+      </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="14"/>
@@ -983,7 +1129,9 @@
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="33"/>
+      <c r="R3" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -991,15 +1139,31 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42433</v>
+      </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="14"/>
@@ -1007,7 +1171,9 @@
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="33"/>
+      <c r="R4" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1015,15 +1181,31 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="13">
+        <v>42433</v>
+      </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="14"/>
@@ -1031,23 +1213,41 @@
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="33"/>
+      <c r="R5" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="13">
+        <v>42433</v>
+      </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
@@ -1055,23 +1255,41 @@
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42433</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
@@ -1079,21 +1297,41 @@
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42433</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
@@ -1101,21 +1339,41 @@
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="34"/>
+      <c r="R8" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42433</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
@@ -1123,21 +1381,41 @@
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="34"/>
+      <c r="R9" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42433</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
@@ -1145,21 +1423,41 @@
       <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="34"/>
+      <c r="R10" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42433</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
@@ -1167,21 +1465,41 @@
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42433</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
@@ -1189,21 +1507,41 @@
       <c r="O12" s="14"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="34"/>
+      <c r="R12" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="13">
+        <v>42433</v>
+      </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
@@ -1211,21 +1549,41 @@
       <c r="O13" s="14"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="34"/>
+      <c r="R13" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42433</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42433</v>
+      </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
@@ -1233,7 +1591,9 @@
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="34"/>
+      <c r="R14" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -119,19 +119,73 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>宋海峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否影响数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起的签约单，租客证件照必须上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP签约单保存时若备注文字超长，保存时提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP/PC发起签约时，非蘑菇宝的租期选择任意时段，合同预览时租期仍显示为12个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现失败回滚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东App添加新房源点击公寓面积，九宫格输入法覆盖了面积输入栏，具体看截图（华为手机）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东APP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>宋海峰</t>
+    <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否影响数据</t>
+    <t>否</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -139,34 +193,50 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>茅寰寰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东发起的签约单，租客证件照必须上传</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP签约单保存时若备注文字超长，保存时提示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP/PC发起签约时，非蘑菇宝的租期选择任意时段，合同预览时租期仍显示为12个月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房东APP签约单上合同预览时，后退需要点2次才能退到签约单详情页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东APP签约单列表，查询时无法查询到审核不通过的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东APP/PC，合同预览时，3.0版本上线前的租客证件照没有显示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,7 +249,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东提现失败回滚</t>
+    <t>房东APP&amp;PC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -200,76 +270,6 @@
   </si>
   <si>
     <t>沙周麟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +964,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -1054,29 +1054,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F2" s="13">
         <v>42433</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H2" s="13">
         <v>42433</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="32" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -1098,13 +1098,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
@@ -1113,24 +1113,26 @@
         <v>42433</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H3" s="13">
         <v>42433</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="14"/>
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="22"/>
+      <c r="P3" s="22">
+        <v>1237</v>
+      </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="33" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
@@ -1140,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -1155,24 +1157,26 @@
         <v>42433</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H4" s="13">
         <v>42433</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="14"/>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="22"/>
+      <c r="P4" s="22">
+        <v>1230</v>
+      </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
@@ -1182,39 +1186,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F5" s="13">
         <v>42433</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H5" s="13">
         <v>42433</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="22"/>
+      <c r="P5" s="22">
+        <v>1231</v>
+      </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="33" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
@@ -1224,39 +1230,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F6" s="13">
         <v>42433</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13">
         <v>42433</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="22"/>
+      <c r="P6" s="22">
+        <v>1228</v>
+      </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
@@ -1266,39 +1274,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13">
         <v>42433</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13">
         <v>42433</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="22"/>
+      <c r="P7" s="22">
+        <v>1203</v>
+      </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="33" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
@@ -1308,39 +1318,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F8" s="13">
         <v>42433</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H8" s="13">
         <v>42433</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="22"/>
+      <c r="P8" s="22">
+        <v>1232</v>
+      </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="33" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
@@ -1350,39 +1362,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13">
         <v>42433</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H9" s="13">
         <v>42433</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="22"/>
+      <c r="P9" s="22">
+        <v>1233</v>
+      </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="33" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -1392,39 +1406,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13">
         <v>42433</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H10" s="13">
         <v>42433</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="22"/>
+      <c r="P10" s="22">
+        <v>1219</v>
+      </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
@@ -1434,39 +1450,41 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F11" s="13">
         <v>42433</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H11" s="13">
         <v>42433</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="22"/>
+      <c r="P11" s="22">
+        <v>1234</v>
+      </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
@@ -1476,29 +1494,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F12" s="13">
         <v>42433</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H12" s="13">
         <v>42433</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -1508,7 +1526,7 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="33" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
@@ -1518,39 +1536,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F13" s="13">
         <v>42433</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H13" s="13">
         <v>42433</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="22"/>
+      <c r="P13" s="22">
+        <v>1235</v>
+      </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="33" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
@@ -1560,39 +1580,41 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F14" s="13">
         <v>42433</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H14" s="13">
         <v>42433</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="22"/>
+      <c r="P14" s="22">
+        <v>1236</v>
+      </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -271,6 +271,15 @@
   <si>
     <t>沙周麟</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单撤销锁验证无效</t>
+  </si>
+  <si>
+    <t>房东APP&amp;PC</t>
+  </si>
+  <si>
+    <t>田东兴</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,8 +511,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,14 +623,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 12" xfId="5"/>
+    <cellStyle name="常规 3 12 2" xfId="9"/>
     <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 6 2" xfId="7"/>
     <cellStyle name="常规 9" xfId="4"/>
+    <cellStyle name="常规 9 2" xfId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,16 +1655,34 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
+      <c r="A15" s="38">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="36">
+        <v>42434</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="36">
+        <v>42434</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
@@ -1637,7 +1690,9 @@
       <c r="O15" s="14"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="34"/>
+      <c r="R15" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>田东兴</t>
+  </si>
+  <si>
+    <t>租客账单中，如其合同是线上签约，则应在签约成功后再显示账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -998,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1696,17 +1704,35 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="36">
+        <v>42436</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="36">
+        <v>42436</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
@@ -1714,7 +1740,9 @@
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="34"/>
+      <c r="R16" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东提现失败回滚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fix Bug</t>
   </si>
   <si>
@@ -161,10 +157,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -249,10 +241,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东APP&amp;PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>崔斌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -287,6 +275,70 @@
   </si>
   <si>
     <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东修改状态为0后，任然可以登录APP进行操作。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源录入时押金可录入0.00，租约补录时若无押金则无法输入0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,6 +434,22 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -525,7 +593,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +715,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1004,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T218"/>
+  <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,22 +1171,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="13">
         <v>42433</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="13">
         <v>42433</v>
@@ -1121,17 +1195,27 @@
       <c r="J2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="K2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="P2" s="22">
         <v>1199</v>
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -1141,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
@@ -1156,7 +1240,7 @@
         <v>42433</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="13">
         <v>42433</v>
@@ -1165,17 +1249,27 @@
       <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="K3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P3" s="22">
         <v>1237</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
@@ -1191,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -1200,7 +1294,7 @@
         <v>42433</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="13">
         <v>42433</v>
@@ -1209,17 +1303,27 @@
       <c r="J4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="K4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P4" s="22">
         <v>1230</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
@@ -1232,19 +1336,19 @@
         <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13">
         <v>42433</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="13">
         <v>42433</v>
@@ -1253,17 +1357,27 @@
       <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="K5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="P5" s="22">
         <v>1231</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
@@ -1279,35 +1393,45 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13">
         <v>42433</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="13">
         <v>42433</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P6" s="22">
         <v>1228</v>
       </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
@@ -1317,41 +1441,51 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13">
         <v>42433</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="13">
         <v>42433</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P7" s="22">
         <v>1203</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
@@ -1361,22 +1495,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13">
         <v>42433</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="13">
         <v>42433</v>
@@ -1385,17 +1519,27 @@
       <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="K8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="P8" s="22">
         <v>1232</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
@@ -1405,22 +1549,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13">
         <v>42433</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="13">
         <v>42433</v>
@@ -1429,17 +1573,27 @@
       <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="K9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="P9" s="22">
         <v>1233</v>
       </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -1449,22 +1603,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>42433</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="13">
         <v>42433</v>
@@ -1473,17 +1627,27 @@
       <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="K10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="P10" s="22">
         <v>1219</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
@@ -1493,271 +1657,341 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>42433</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13">
         <v>42433</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P11" s="22">
         <v>1234</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13">
         <v>42433</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="13">
         <v>42433</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="22">
+        <v>1235</v>
+      </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="33" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13">
         <v>42433</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13">
         <v>42433</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="P13" s="22">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="38">
+        <v>14</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="13">
-        <v>42433</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="13">
-        <v>42433</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14" t="s">
+      <c r="E14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="36">
+        <v>42434</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="36">
+        <v>42434</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="22">
-        <v>1236</v>
-      </c>
+      <c r="K14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="33" t="s">
-        <v>47</v>
+      <c r="R14" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>68</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F15" s="36">
-        <v>42434</v>
+        <v>42436</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="36">
-        <v>42434</v>
+        <v>42436</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="36">
+        <v>42436</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38">
-        <v>15</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>70</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="36">
-        <v>42436</v>
+      <c r="F16" s="42">
+        <v>42437</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="36">
-        <v>42436</v>
+        <v>37</v>
+      </c>
+      <c r="H16" s="42">
+        <v>42437</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="34"/>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="38">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="42">
+        <v>42437</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="42">
+        <v>42437</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
@@ -1790,9 +2024,9 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2039,7 +2273,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
       <c r="J30" s="14"/>
@@ -2105,7 +2339,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="12"/>
       <c r="J33" s="14"/>
@@ -2358,7 +2592,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="34"/>
+      <c r="R44" s="7"/>
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
@@ -2693,25 +2927,25 @@
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2736,27 +2970,26 @@
       <c r="S61" s="17"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="9"/>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="17"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="4"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="10"/>
+      <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
@@ -3897,7 +4130,7 @@
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="5"/>
       <c r="G117" s="7"/>
       <c r="H117" s="5"/>
@@ -4018,11 +4251,11 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="5"/>
       <c r="G123" s="7"/>
@@ -5044,7 +5277,6 @@
       <c r="O171" s="4"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
       <c r="S171" s="4"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.15">
@@ -5283,8 +5515,6 @@
       <c r="M183" s="7"/>
       <c r="N183" s="5"/>
       <c r="O183" s="4"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
       <c r="S183" s="4"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.15">
@@ -5898,24 +6128,6 @@
       <c r="N217" s="5"/>
       <c r="O217" s="4"/>
       <c r="S217" s="4"/>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A218" s="7"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="M218" s="7"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="4"/>
-      <c r="S218" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -340,6 +340,22 @@
   <si>
     <t>徐燕</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋海峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东pc:产品使用手册更新,新增教学视频</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,7 +609,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,9 +701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,26 +1208,26 @@
       <c r="J2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="35">
         <v>42436</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="22">
         <v>1199</v>
       </c>
       <c r="Q2" s="22"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>43</v>
       </c>
       <c r="S2" s="18"/>
@@ -1249,26 +1262,26 @@
       <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="35">
         <v>42436</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="22">
         <v>1237</v>
       </c>
       <c r="Q3" s="22"/>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="S3" s="18"/>
@@ -1303,26 +1316,26 @@
       <c r="J4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>42436</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P4" s="22">
         <v>1230</v>
       </c>
       <c r="Q4" s="22"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="32" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="18"/>
@@ -1357,26 +1370,26 @@
       <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>42436</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>77</v>
       </c>
       <c r="P5" s="22">
         <v>1231</v>
       </c>
       <c r="Q5" s="22"/>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="32" t="s">
         <v>48</v>
       </c>
       <c r="S5" s="18"/>
@@ -1411,26 +1424,26 @@
       <c r="J6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>42436</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P6" s="22">
         <v>1228</v>
       </c>
       <c r="Q6" s="22"/>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="32" t="s">
         <v>45</v>
       </c>
       <c r="S6" s="18"/>
@@ -1465,26 +1478,26 @@
       <c r="J7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>42436</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P7" s="22">
         <v>1203</v>
       </c>
       <c r="Q7" s="22"/>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="32" t="s">
         <v>48</v>
       </c>
       <c r="S7" s="18"/>
@@ -1519,26 +1532,26 @@
       <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <v>42436</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="22">
         <v>1232</v>
       </c>
       <c r="Q8" s="22"/>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="32" t="s">
         <v>48</v>
       </c>
       <c r="S8" s="18"/>
@@ -1573,26 +1586,26 @@
       <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>42436</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="36" t="s">
         <v>82</v>
       </c>
       <c r="P9" s="22">
         <v>1233</v>
       </c>
       <c r="Q9" s="22"/>
-      <c r="R9" s="33" t="s">
+      <c r="R9" s="32" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="18"/>
@@ -1627,26 +1640,26 @@
       <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>42436</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="36" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="22">
         <v>1219</v>
       </c>
       <c r="Q10" s="22"/>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="32" t="s">
         <v>45</v>
       </c>
       <c r="S10" s="18"/>
@@ -1681,26 +1694,26 @@
       <c r="J11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>42436</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P11" s="22">
         <v>1234</v>
       </c>
       <c r="Q11" s="22"/>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="S11" s="18"/>
@@ -1735,26 +1748,26 @@
       <c r="J12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>42436</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P12" s="22">
         <v>1235</v>
       </c>
       <c r="Q12" s="22"/>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="32" t="s">
         <v>38</v>
       </c>
       <c r="S12" s="18"/>
@@ -1789,165 +1802,165 @@
       <c r="J13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>42436</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>82</v>
       </c>
       <c r="P13" s="22">
         <v>1236</v>
       </c>
       <c r="Q13" s="22"/>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="32" t="s">
         <v>45</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>14</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>42434</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>42434</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <v>42436</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="36" t="s">
         <v>82</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="39" t="s">
         <v>45</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>15</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>42436</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>42436</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <v>42436</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="36" t="s">
         <v>76</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="39" t="s">
         <v>38</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="38">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="37">
+        <v>16</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>42437</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>42437</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="34" t="s">
         <v>71</v>
       </c>
       <c r="L16" s="12"/>
@@ -1956,40 +1969,42 @@
       <c r="O16" s="14"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="34"/>
+      <c r="R16" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="38">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="37">
+        <v>17</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>42437</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>42437</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37" t="s">
+      <c r="I17" s="34"/>
+      <c r="J17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="34" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="12"/>
@@ -1998,29 +2013,53 @@
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="34"/>
+      <c r="R17" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>18</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="41">
+        <v>42437</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="41">
+        <v>42437</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="M18" s="14"/>
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="34"/>
+      <c r="R18" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
@@ -2042,7 +2081,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="34"/>
+      <c r="R19" s="33"/>
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
@@ -2064,7 +2103,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="34"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
@@ -2086,7 +2125,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="34"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
@@ -2108,7 +2147,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="34"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
@@ -2130,7 +2169,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="34"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
@@ -2152,7 +2191,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="34"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
@@ -2174,7 +2213,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="34"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
@@ -2196,7 +2235,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="34"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
@@ -2218,7 +2257,7 @@
       <c r="O27" s="14"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="34"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
@@ -2240,7 +2279,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="34"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
@@ -2262,7 +2301,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="34"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
@@ -2284,7 +2323,7 @@
       <c r="O30" s="14"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="34"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
@@ -2306,7 +2345,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="34"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
@@ -2328,7 +2367,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="34"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
@@ -2350,7 +2389,7 @@
       <c r="O33" s="14"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="34"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
@@ -2372,7 +2411,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="34"/>
+      <c r="R34" s="33"/>
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
@@ -2394,7 +2433,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
@@ -2416,7 +2455,7 @@
       <c r="O36" s="14"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="34"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
@@ -2438,7 +2477,7 @@
       <c r="O37" s="14"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="34"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
@@ -2460,7 +2499,7 @@
       <c r="O38" s="14"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="34"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
@@ -2482,7 +2521,7 @@
       <c r="O39" s="14"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="34"/>
+      <c r="R39" s="33"/>
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
@@ -2504,7 +2543,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="34"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
@@ -2526,7 +2565,7 @@
       <c r="O41" s="14"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="34"/>
+      <c r="R41" s="33"/>
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
@@ -2548,7 +2587,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="34"/>
+      <c r="R42" s="33"/>
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
@@ -2570,7 +2609,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="34"/>
+      <c r="R43" s="33"/>
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -355,6 +355,30 @@
   </si>
   <si>
     <t>房东pc:产品使用手册更新,新增教学视频</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +633,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +759,9 @@
     </xf>
     <xf numFmtId="58" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1094,7 +1121,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,11 +1990,21 @@
       <c r="K16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="L16" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="41">
+        <v>42438</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="39" t="s">
         <v>38</v>
@@ -2007,11 +2044,21 @@
       <c r="K17" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="L17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="41">
+        <v>42438</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="39" t="s">
         <v>38</v>
@@ -2051,11 +2098,21 @@
       <c r="K18" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="7"/>
+      <c r="L18" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="41">
+        <v>42438</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="39" t="s">
         <v>38</v>
